--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200402/配合固网华为vIMS网络建设，请进行业务开通、资源、计费等方面的开发（195665795）/返回字段整理.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200402/配合固网华为vIMS网络建设，请进行业务开通、资源、计费等方面的开发（195665795）/返回字段整理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,46 +203,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -254,25 +247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="50"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,41 +303,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -386,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,10 +403,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,7 +437,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,31 +612,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1"/>
+    <col min="12" max="12" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,17 +668,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -723,15 +706,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -759,15 +742,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -789,15 +772,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -819,17 +802,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -851,15 +834,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -881,17 +864,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -903,8 +886,8 @@
       <c r="G8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>38</v>
+      <c r="H8" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>40</v>
@@ -913,15 +896,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -933,8 +916,8 @@
       <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>38</v>
+      <c r="H9" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>44</v>
@@ -943,17 +926,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -975,15 +958,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1005,15 +988,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1035,15 +1018,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">

--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200402/配合固网华为vIMS网络建设，请进行业务开通、资源、计费等方面的开发（195665795）/返回字段整理.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200402/配合固网华为vIMS网络建设，请进行业务开通、资源、计费等方面的开发（195665795）/返回字段整理.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -203,8 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,11 +321,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,6 +404,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -437,6 +439,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,31 +615,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="1"/>
     <col min="12" max="12" width="19.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -650,25 +650,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -682,31 +682,31 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -718,31 +718,31 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -751,28 +751,28 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -781,271 +781,271 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
